--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="486"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
+  </si>
+  <si>
+    <t>Elabore el plan del ciclo #4.</t>
+  </si>
+  <si>
+    <t>Realize el lanzamiento del ciclo #4.</t>
   </si>
 </sst>
 </file>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5990,7 +5996,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6013,17 +6019,28 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>64</v>
+      </c>
       <c r="B2" s="4">
         <f>SUMIF(logt!G:G,task!A2,logt!F:F)/60</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUMIF(logt!G:G,task!A3,logt!F:F)/60</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -6108,7 +6125,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6150,14 +6167,58 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>41962</v>
+      </c>
+      <c r="B2" s="17">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="27"/>
+        <f t="shared" ref="F2:F3" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <v>84</v>
+      </c>
+      <c r="G2" s="17">
+        <v>64</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="28"/>
+      <c r="A3" s="19">
+        <v>41962</v>
+      </c>
+      <c r="B3" s="17">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="17">
+        <v>62</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Realize el lanzamiento del ciclo #4.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado y actualizado el plan de un ciclo preevio.</t>
+  </si>
+  <si>
+    <t>Se ha creado el reporte de inspección del documento de arquitectura.</t>
   </si>
 </sst>
 </file>
@@ -671,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
@@ -1768,7 +1783,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
@@ -2805,7 +2820,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>25</v>
@@ -3842,7 +3857,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>27</v>
@@ -4878,9 +4893,7 @@
       <c r="B6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>29</v>
-      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="30" t="s">
         <v>29</v>
       </c>
@@ -5915,9 +5928,7 @@
       <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="30" t="s">
         <v>31</v>
       </c>
@@ -5951,7 +5962,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>33</v>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Se ha creado el reporte de inspección del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Rails getting started tutorial</t>
+  </si>
+  <si>
+    <t>Trabaje en la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Actualizando las graficas generales del plan del proyecto.</t>
+  </si>
+  <si>
+    <t>Reporte de pm y peer review form.</t>
   </si>
 </sst>
 </file>
@@ -686,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6007,7 +6019,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6054,14 +6066,28 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUMIF(logt!G:G,task!A4,logt!F:F)/60</f>
+        <v>4.25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="25">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIF(logt!G:G,task!A5,logt!F:F)/60</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C5" s="25">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -6119,7 +6145,7 @@
       <c r="C16" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C10">
+  <sortState ref="A2:C5">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -6133,10 +6159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6179,130 +6205,225 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
-        <v>41962</v>
+        <v>41924</v>
       </c>
       <c r="B2" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="11">
-        <v>0.37847222222222227</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D2" s="11">
-        <v>0.4368055555555555</v>
+        <v>0.76597222222222217</v>
       </c>
       <c r="E2" s="17">
         <v>0</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F3" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f>((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <v>128</v>
+      </c>
+      <c r="G2" s="17">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>41925</v>
+      </c>
+      <c r="B3" s="22">
+        <v>8</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="E3" s="22">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12">
+        <f>((HOUR(D3)-HOUR(C3))*60)+(MINUTE(D3)-MINUTE(C3))-E3</f>
+        <v>127</v>
+      </c>
+      <c r="G3" s="22">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>41925</v>
+      </c>
+      <c r="B4" s="18">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <f>((HOUR(D4)-HOUR(C4))*60)+(MINUTE(D4)-MINUTE(C4))-E4</f>
+        <v>61</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>41927</v>
+      </c>
+      <c r="B5" s="18">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <f>((HOUR(D5)-HOUR(C5))*60)+(MINUTE(D5)-MINUTE(C5))-E5</f>
+        <v>28</v>
+      </c>
+      <c r="G5" s="17">
+        <v>61</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>41962</v>
+      </c>
+      <c r="B6" s="17">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F8" si="0">((HOUR(D6)-HOUR(C6))*60)+(MINUTE(D6)-MINUTE(C6))-E6</f>
         <v>84</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G6" s="17">
         <v>64</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>41962</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B7" s="17">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C7" s="11">
         <v>0.4375</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D7" s="11">
         <v>0.45763888888888887</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G7" s="17">
         <v>62</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
-      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="19">
+        <v>41963</v>
+      </c>
+      <c r="B8" s="17">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="E8" s="17">
+        <v>34</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18"/>
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="18"/>
-      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="15"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
@@ -6310,10 +6431,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="15"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="18"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -6322,7 +6443,7 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="18"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -6331,7 +6452,7 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="18"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -6339,52 +6460,54 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="15"/>
+      <c r="H19" s="8"/>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="13"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="18"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="15"/>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
@@ -6482,6 +6605,38 @@
       <c r="E37" s="18"/>
       <c r="F37" s="15"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="486" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="486" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Preparando la presentacion semanal del estado del proyecto.</t>
+  </si>
+  <si>
+    <t>Trabajando en la implementacion de la funcionalidad #1.</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:ALY9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6165,7 +6168,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6328,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" ref="F6:F10" si="0">((HOUR(D6)-HOUR(C6))*60)+(MINUTE(D6)-MINUTE(C6))-E6</f>
+        <f t="shared" ref="F6:F15" si="0">((HOUR(D6)-HOUR(C6))*60)+(MINUTE(D6)-MINUTE(C6))-E6</f>
         <v>84</v>
       </c>
       <c r="G6" s="16">
@@ -6439,43 +6442,139 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="17"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="22">
+        <v>41964</v>
+      </c>
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="E11" s="17">
+        <v>40</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G11" s="16">
+        <v>70</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="22">
+        <v>41964</v>
+      </c>
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G12" s="16">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="22">
+        <v>41965</v>
+      </c>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E13" s="17">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="G13" s="16">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="17"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="23">
+        <v>41965</v>
+      </c>
+      <c r="B14" s="17">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="G14" s="16">
+        <v>70</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="23">
+        <v>41966</v>
+      </c>
+      <c r="B15" s="17">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="E15" s="17">
+        <v>35</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="G15" s="16">
+        <v>70</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Reasignando las tareas del plan.</t>
+  </si>
+  <si>
+    <t>Defini los cambios que deben hacerse para la implementacion de la funcionalidad #4.</t>
   </si>
 </sst>
 </file>
@@ -465,8 +468,8 @@
   </sheetPr>
   <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4967,10 +4970,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:19"/>
+  <dimension ref="1:20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10562,6 +10565,33 @@
         <v>41</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="n">
+        <v>41939</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="29" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D20" s="29" t="n">
+        <v>0.484722222222222</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="n">
+        <f aca="false">((HOUR(D20)-HOUR(C20))*60)+(MINUTE(D20)-MINUTE(C20))-E20</f>
+        <v>104</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="486" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -798,10 +798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:5"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3921,7 +3921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>61</v>
       </c>
@@ -4954,6 +4954,18 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <f aca="false">SUMIF(logt!G:G,task!A6,logt!F:F)/60</f>
+        <v>13.6166666666667</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4970,10 +4982,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10486,7 +10498,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
-        <v>41937</v>
+        <v>41968</v>
       </c>
       <c r="B17" s="22" t="n">
         <v>10</v>
@@ -10513,7 +10525,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="n">
-        <v>41937</v>
+        <v>41968</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>10</v>
@@ -10540,7 +10552,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="n">
-        <v>41937</v>
+        <v>41968</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>10</v>
@@ -10567,7 +10579,7 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="n">
-        <v>41939</v>
+        <v>41970</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>10</v>
@@ -10590,6 +10602,30 @@
       </c>
       <c r="H20" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="n">
+        <v>41970</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="29" t="n">
+        <v>0.638194444444444</v>
+      </c>
+      <c r="D21" s="29" t="n">
+        <v>0.681944444444444</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24" t="n">
+        <f aca="false">((HOUR(D21)-HOUR(C21))*60)+(MINUTE(D21)-MINUTE(C21))-E21</f>
+        <v>63</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -4982,10 +4982,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:21"/>
+  <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10628,6 +10628,33 @@
         <v>40</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29" t="n">
+        <v>0.279861111111111</v>
+      </c>
+      <c r="D22" s="29" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24" t="n">
+        <f aca="false">((HOUR(D22)-HOUR(C22))*60)+(MINUTE(D22)-MINUTE(C22))-E22</f>
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Defini los cambios que deben hacerse para la implementacion de la funcionalidad #4.</t>
+  </si>
+  <si>
+    <t>Arreglando el error del request via AJAX.</t>
+  </si>
+  <si>
+    <t>Reunion #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Implementacion de la funcionalidad #4.</t>
   </si>
 </sst>
 </file>
@@ -798,10 +807,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:6"/>
+  <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4966,6 +4975,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <f aca="false">SUMIF(logt!G:G,task!A7,logt!F:F)/60</f>
+        <v>17.4333333333333</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4982,10 +5003,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10624,6 +10645,7 @@
         <f aca="false">((HOUR(D21)-HOUR(C21))*60)+(MINUTE(D21)-MINUTE(C21))-E21</f>
         <v>63</v>
       </c>
+      <c r="G21" s="0"/>
       <c r="H21" s="2" t="s">
         <v>40</v>
       </c>
@@ -10653,6 +10675,162 @@
       </c>
       <c r="H22" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D23" s="29" t="n">
+        <v>0.438888888888889</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24" t="n">
+        <f aca="false">((HOUR(D23)-HOUR(C23))*60)+(MINUTE(D23)-MINUTE(C23))-E23</f>
+        <v>107</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="D24" s="29" t="n">
+        <v>0.498611111111111</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24" t="n">
+        <f aca="false">((HOUR(D24)-HOUR(C24))*60)+(MINUTE(D24)-MINUTE(C24))-E24</f>
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="n">
+        <v>41972</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="29" t="n">
+        <v>0.390277777777778</v>
+      </c>
+      <c r="D25" s="29" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <f aca="false">((HOUR(D25)-HOUR(C25))*60)+(MINUTE(D25)-MINUTE(C25))-E25</f>
+        <v>243</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="n">
+        <v>41972</v>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="29" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D26" s="29" t="n">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <f aca="false">((HOUR(D26)-HOUR(C26))*60)+(MINUTE(D26)-MINUTE(C26))-E26</f>
+        <v>277</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="n">
+        <v>41972</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="29" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D27" s="29" t="n">
+        <v>0.999305555555556</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="n">
+        <f aca="false">((HOUR(D27)-HOUR(C27))*60)+(MINUTE(D27)-MINUTE(C27))-E27</f>
+        <v>179</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="n">
+        <v>41973</v>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="29" t="n">
+        <v>0.00208333333333333</v>
+      </c>
+      <c r="D28" s="29" t="n">
+        <v>0.106944444444444</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="n">
+        <f aca="false">((HOUR(D28)-HOUR(C28))*60)+(MINUTE(D28)-MINUTE(C28))-E28</f>
+        <v>151</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="450" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Implementacion de la funcionalidad #4.</t>
+  </si>
+  <si>
+    <t>Actualizando la estructura de archivos del documento de arquitectura.</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5003,10 +5006,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:28"/>
+  <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10697,6 +10700,7 @@
         <f aca="false">((HOUR(D23)-HOUR(C23))*60)+(MINUTE(D23)-MINUTE(C23))-E23</f>
         <v>107</v>
       </c>
+      <c r="G23" s="0"/>
       <c r="H23" s="2" t="s">
         <v>44</v>
       </c>
@@ -10721,6 +10725,7 @@
         <f aca="false">((HOUR(D24)-HOUR(C24))*60)+(MINUTE(D24)-MINUTE(C24))-E24</f>
         <v>28</v>
       </c>
+      <c r="G24" s="0"/>
       <c r="H24" s="2" t="s">
         <v>45</v>
       </c>
@@ -10831,6 +10836,30 @@
       </c>
       <c r="H28" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="n">
+        <v>41975</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" s="29" t="n">
+        <v>0.495833333333333</v>
+      </c>
+      <c r="D29" s="29" t="n">
+        <v>0.534027777777778</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24" t="n">
+        <f aca="false">((HOUR(D29)-HOUR(C29))*60)+(MINUTE(D29)-MINUTE(C29))-E29</f>
+        <v>55</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Actualizando la estructura de archivos del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Trabajando en la implementacion de la funcionalidad #3.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5006,10 +5009,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:29"/>
+  <dimension ref="1:30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10862,6 +10865,33 @@
         <v>47</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="n">
+        <v>41976</v>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" s="29" t="n">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="D30" s="29" t="n">
+        <v>0.122916666666667</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="n">
+        <f aca="false">((HOUR(D30)-HOUR(C30))*60)+(MINUTE(D30)-MINUTE(C30))-E30</f>
+        <v>176</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -5009,10 +5009,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:30"/>
+  <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10861,6 +10861,7 @@
         <f aca="false">((HOUR(D29)-HOUR(C29))*60)+(MINUTE(D29)-MINUTE(C29))-E29</f>
         <v>55</v>
       </c>
+      <c r="G29" s="0"/>
       <c r="H29" s="2" t="s">
         <v>47</v>
       </c>
@@ -10889,6 +10890,33 @@
         <v>76</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="n">
+        <v>41976</v>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" s="29" t="n">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="D31" s="29" t="n">
+        <v>0.701388888888889</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24" t="n">
+        <f aca="false">((HOUR(D31)-HOUR(C31))*60)+(MINUTE(D31)-MINUTE(C31))-E31</f>
+        <v>100</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>48</v>
       </c>
     </row>

--- a/tspi/ciclo-4/plan4-20106065.xlsx
+++ b/tspi/ciclo-4/plan4-20106065.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="450" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="450" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Trabajando en la implementacion de la funcionalidad #3.</t>
+  </si>
+  <si>
+    <t>Postmortem #4</t>
+  </si>
+  <si>
+    <t>Elaboracion de la presentacion final</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -813,10 +819,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:7"/>
+  <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4993,6 +4999,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <f aca="false">SUMIF(logt!G:G,task!A8,logt!F:F)/60</f>
+        <v>1.26666666666667</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">SUMIF(logt!G:G,task!A9,logt!F:F)/60</f>
+        <v>3.08333333333333</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5009,10 +5039,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:31"/>
+  <dimension ref="1:33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10920,6 +10950,60 @@
         <v>48</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="n">
+        <v>41977</v>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="29" t="n">
+        <v>0.345833333333333</v>
+      </c>
+      <c r="D32" s="29" t="n">
+        <v>0.398611111111111</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="n">
+        <f aca="false">((HOUR(D32)-HOUR(C32))*60)+(MINUTE(D32)-MINUTE(C32))-E32</f>
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="n">
+        <v>41977</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" s="29" t="n">
+        <v>0.461111111111111</v>
+      </c>
+      <c r="D33" s="29" t="n">
+        <v>0.620833333333333</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="F33" s="24" t="n">
+        <f aca="false">((HOUR(D33)-HOUR(C33))*60)+(MINUTE(D33)-MINUTE(C33))-E33</f>
+        <v>185</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>79</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
